--- a/IA_CCBS_BANK_SIDE/Collateral/CollateralMaintenance_Finalize.xlsx
+++ b/IA_CCBS_BANK_SIDE/Collateral/CollateralMaintenance_Finalize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sw\Relational_Files\Interfaces_aa\Interfaces\IA_CCBS_BANK_SIDE\Collateral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BB933C-05D9-4E81-A883-5F5149E55E3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0C35F6-70AE-4A70-823C-9A55E5628991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{68F28061-2ECD-4B0A-AB1D-3A449686159F}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>Sept 9 2023</t>
-  </si>
-  <si>
     <t>BASIL II Accepted</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t>Collateral</t>
+  </si>
+  <si>
+    <t>Sept 6 2023</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1635,7 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -1724,7 +1724,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -1798,16 +1798,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="24"/>
     </row>
@@ -1816,16 +1816,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="24"/>
     </row>
@@ -1834,16 +1834,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="24"/>
     </row>
@@ -1852,16 +1852,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="24"/>
     </row>
@@ -1870,16 +1870,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>51</v>
-      </c>
       <c r="D7" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="24"/>
     </row>
@@ -1888,16 +1888,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>53</v>
-      </c>
       <c r="D8" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="24"/>
     </row>
@@ -1906,16 +1906,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="24"/>
     </row>
@@ -1927,13 +1927,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="24"/>
     </row>
@@ -1942,16 +1942,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="24"/>
     </row>
@@ -1960,16 +1960,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="24"/>
     </row>
@@ -1978,16 +1978,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>64</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="24"/>
     </row>
@@ -1996,16 +1996,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>67</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>68</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="24"/>
     </row>
@@ -2014,16 +2014,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>71</v>
-      </c>
       <c r="E15" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="24"/>
     </row>
@@ -2032,16 +2032,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>112</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>113</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="27"/>
     </row>
@@ -2050,16 +2050,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>73</v>
-      </c>
       <c r="D17" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" s="27"/>
     </row>
@@ -2068,16 +2068,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>75</v>
-      </c>
       <c r="D18" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" s="27"/>
     </row>
@@ -2086,16 +2086,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>77</v>
-      </c>
       <c r="D19" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="27"/>
     </row>
@@ -2104,16 +2104,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>43</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="24"/>
     </row>
@@ -2122,16 +2122,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="24"/>
     </row>
@@ -2140,16 +2140,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="24"/>
     </row>
@@ -2158,16 +2158,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="D23" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="E23" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="24"/>
     </row>
@@ -2176,16 +2176,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="D24" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>36</v>
-      </c>
       <c r="E24" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="24"/>
     </row>
@@ -2194,16 +2194,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="24"/>
     </row>
@@ -2212,16 +2212,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>47</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="24"/>
     </row>
@@ -2230,16 +2230,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="24"/>
     </row>
@@ -2248,16 +2248,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>79</v>
-      </c>
       <c r="D28" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="24"/>
     </row>
@@ -2266,16 +2266,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" s="24"/>
     </row>
@@ -2284,16 +2284,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>79</v>
-      </c>
       <c r="D30" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F30" s="24"/>
     </row>
@@ -2302,16 +2302,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>84</v>
-      </c>
       <c r="D31" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="24"/>
     </row>
@@ -2320,16 +2320,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>47</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F32" s="24"/>
     </row>
@@ -2338,16 +2338,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" s="24"/>
     </row>
@@ -2359,13 +2359,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F34" s="24"/>
     </row>
@@ -2374,16 +2374,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F35" s="24"/>
     </row>
@@ -2392,16 +2392,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F36" s="24"/>
     </row>
@@ -2410,16 +2410,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>88</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>89</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" s="24"/>
     </row>
@@ -2428,16 +2428,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>90</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>91</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38" s="24"/>
     </row>
@@ -2446,16 +2446,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>93</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F39" s="24"/>
     </row>
@@ -2464,16 +2464,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="D40" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>30</v>
-      </c>
       <c r="E40" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F40" s="24"/>
     </row>
@@ -2482,16 +2482,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>41</v>
-      </c>
       <c r="D41" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F41" s="24"/>
     </row>
@@ -2500,16 +2500,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" s="24"/>
     </row>
@@ -2518,16 +2518,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F43" s="24"/>
     </row>
@@ -2536,16 +2536,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" s="24"/>
     </row>
@@ -2554,16 +2554,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>98</v>
-      </c>
       <c r="D45" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" s="24"/>
     </row>
@@ -2572,16 +2572,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>51</v>
-      </c>
       <c r="D46" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F46" s="24"/>
     </row>
@@ -2590,16 +2590,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>53</v>
-      </c>
       <c r="D47" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F47" s="24"/>
     </row>
@@ -3174,16 +3174,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>100</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="27"/>
     </row>
@@ -3192,16 +3192,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>102</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>103</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="27"/>
     </row>
@@ -3210,16 +3210,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>105</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="27"/>
     </row>
@@ -3228,16 +3228,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="27"/>
     </row>
@@ -3246,16 +3246,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>107</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>108</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="27"/>
     </row>
